--- a/fao_land_data_spread.xlsx
+++ b/fao_land_data_spread.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,13 +475,13 @@
         <v>1961</v>
       </c>
       <c r="B2" t="n">
-        <v>927526.2222222222</v>
+        <v>927526.3333333334</v>
       </c>
       <c r="C2" t="n">
         <v>911930.5555555555</v>
       </c>
       <c r="D2" t="n">
-        <v>825966.4444444445</v>
+        <v>825966.5555555555</v>
       </c>
       <c r="E2" t="n">
         <v>586216.4444444445</v>
@@ -490,7 +490,7 @@
         <v>502466.3333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>4146173.111111111</v>
+        <v>4146173.266666667</v>
       </c>
     </row>
     <row r="3">
@@ -498,13 +498,13 @@
         <v>1962</v>
       </c>
       <c r="B3" t="n">
-        <v>927657</v>
+        <v>927657.1111111111</v>
       </c>
       <c r="C3" t="n">
         <v>913559.3333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>826292.8888888889</v>
+        <v>826293</v>
       </c>
       <c r="E3" t="n">
         <v>585067.6666666666</v>
@@ -513,7 +513,7 @@
         <v>503954.4444444444</v>
       </c>
       <c r="G3" t="n">
-        <v>4149369.444444444</v>
+        <v>4149369.6</v>
       </c>
     </row>
     <row r="4">
@@ -521,13 +521,13 @@
         <v>1963</v>
       </c>
       <c r="B4" t="n">
-        <v>928080.8888888889</v>
+        <v>928081</v>
       </c>
       <c r="C4" t="n">
         <v>914962.2222222222</v>
       </c>
       <c r="D4" t="n">
-        <v>825754.1111111111</v>
+        <v>825754.3444444444</v>
       </c>
       <c r="E4" t="n">
         <v>584786</v>
@@ -536,7 +536,7 @@
         <v>505403.4444444444</v>
       </c>
       <c r="G4" t="n">
-        <v>4152636.666666667</v>
+        <v>4152636.944444444</v>
       </c>
     </row>
     <row r="5">
@@ -544,13 +544,13 @@
         <v>1964</v>
       </c>
       <c r="B5" t="n">
-        <v>928313.3333333334</v>
+        <v>928313.4444444445</v>
       </c>
       <c r="C5" t="n">
         <v>916675.3333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>825170.7777777778</v>
+        <v>825170.9777777777</v>
       </c>
       <c r="E5" t="n">
         <v>584079</v>
@@ -559,7 +559,7 @@
         <v>506533.3333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>4155457.111111111</v>
+        <v>4155457.355555555</v>
       </c>
     </row>
     <row r="6">
@@ -567,13 +567,13 @@
         <v>1965</v>
       </c>
       <c r="B6" t="n">
-        <v>928717.1111111111</v>
+        <v>928717.2222222222</v>
       </c>
       <c r="C6" t="n">
         <v>918125.5555555555</v>
       </c>
       <c r="D6" t="n">
-        <v>825569.5555555555</v>
+        <v>825569.7111111111</v>
       </c>
       <c r="E6" t="n">
         <v>583276.4444444445</v>
@@ -582,7 +582,7 @@
         <v>507664.8888888889</v>
       </c>
       <c r="G6" t="n">
-        <v>4159057</v>
+        <v>4159057.2</v>
       </c>
     </row>
     <row r="7">
@@ -590,13 +590,13 @@
         <v>1966</v>
       </c>
       <c r="B7" t="n">
-        <v>929549.3333333334</v>
+        <v>929549.4444444445</v>
       </c>
       <c r="C7" t="n">
         <v>919465.5555555555</v>
       </c>
       <c r="D7" t="n">
-        <v>824872.5555555555</v>
+        <v>824872.6888888889</v>
       </c>
       <c r="E7" t="n">
         <v>583047.8888888889</v>
@@ -605,7 +605,7 @@
         <v>508870.5555555556</v>
       </c>
       <c r="G7" t="n">
-        <v>4162081.111111111</v>
+        <v>4162081.288888889</v>
       </c>
     </row>
     <row r="8">
@@ -613,13 +613,13 @@
         <v>1967</v>
       </c>
       <c r="B8" t="n">
-        <v>929911.7777777778</v>
+        <v>929911.8888888889</v>
       </c>
       <c r="C8" t="n">
         <v>920679.5555555555</v>
       </c>
       <c r="D8" t="n">
-        <v>825113.4444444445</v>
+        <v>825113.4777777777</v>
       </c>
       <c r="E8" t="n">
         <v>582866.1111111111</v>
@@ -628,7 +628,7 @@
         <v>509908.6666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>4165564.111111111</v>
+        <v>4165564.188888889</v>
       </c>
     </row>
     <row r="9">
@@ -636,13 +636,13 @@
         <v>1968</v>
       </c>
       <c r="B9" t="n">
-        <v>930533.7777777778</v>
+        <v>930533.8888888889</v>
       </c>
       <c r="C9" t="n">
         <v>922047.8888888889</v>
       </c>
       <c r="D9" t="n">
-        <v>824945.6666666666</v>
+        <v>824945.9111111112</v>
       </c>
       <c r="E9" t="n">
         <v>583705.4444444445</v>
@@ -651,7 +651,7 @@
         <v>511585.4444444444</v>
       </c>
       <c r="G9" t="n">
-        <v>4169571.333333333</v>
+        <v>4169571.622222222</v>
       </c>
     </row>
     <row r="10">
@@ -659,13 +659,13 @@
         <v>1969</v>
       </c>
       <c r="B10" t="n">
-        <v>931098.3333333334</v>
+        <v>931098.4444444445</v>
       </c>
       <c r="C10" t="n">
         <v>923657.5555555555</v>
       </c>
       <c r="D10" t="n">
-        <v>825494.8888888889</v>
+        <v>825495.1888888889</v>
       </c>
       <c r="E10" t="n">
         <v>584544.7777777778</v>
@@ -674,7 +674,7 @@
         <v>514026.6666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>4176544.111111111</v>
+        <v>4176544.455555556</v>
       </c>
     </row>
     <row r="11">
@@ -682,13 +682,13 @@
         <v>1970</v>
       </c>
       <c r="B11" t="n">
-        <v>931427.4444444445</v>
+        <v>931427.5555555555</v>
       </c>
       <c r="C11" t="n">
         <v>925178.5555555555</v>
       </c>
       <c r="D11" t="n">
-        <v>824842.2222222222</v>
+        <v>824842.5444444444</v>
       </c>
       <c r="E11" t="n">
         <v>584261.6666666666</v>
@@ -697,7 +697,7 @@
         <v>514798.7777777778</v>
       </c>
       <c r="G11" t="n">
-        <v>4178984.555555556</v>
+        <v>4178984.922222222</v>
       </c>
     </row>
     <row r="12">
@@ -705,13 +705,13 @@
         <v>1971</v>
       </c>
       <c r="B12" t="n">
-        <v>932829.4444444445</v>
+        <v>932829.5555555555</v>
       </c>
       <c r="C12" t="n">
         <v>926146.3333333334</v>
       </c>
       <c r="D12" t="n">
-        <v>824164.8888888889</v>
+        <v>824165.0333333333</v>
       </c>
       <c r="E12" t="n">
         <v>583958.7777777778</v>
@@ -720,7 +720,7 @@
         <v>516635</v>
       </c>
       <c r="G12" t="n">
-        <v>4182611.777777778</v>
+        <v>4182611.966666666</v>
       </c>
     </row>
     <row r="13">
@@ -728,13 +728,13 @@
         <v>1972</v>
       </c>
       <c r="B13" t="n">
-        <v>932914.3333333334</v>
+        <v>932914.4444444445</v>
       </c>
       <c r="C13" t="n">
         <v>928523.1111111111</v>
       </c>
       <c r="D13" t="n">
-        <v>824408</v>
+        <v>824408.3333333334</v>
       </c>
       <c r="E13" t="n">
         <v>583589.2222222222</v>
@@ -743,7 +743,7 @@
         <v>517789.7777777778</v>
       </c>
       <c r="G13" t="n">
-        <v>4186629.111111111</v>
+        <v>4186629.488888889</v>
       </c>
     </row>
     <row r="14">
@@ -751,13 +751,13 @@
         <v>1973</v>
       </c>
       <c r="B14" t="n">
-        <v>932933.2222222222</v>
+        <v>932933.3333333334</v>
       </c>
       <c r="C14" t="n">
         <v>931105.1111111111</v>
       </c>
       <c r="D14" t="n">
-        <v>824770.1111111111</v>
+        <v>824770.3</v>
       </c>
       <c r="E14" t="n">
         <v>583209</v>
@@ -766,7 +766,7 @@
         <v>518728.2222222222</v>
       </c>
       <c r="G14" t="n">
-        <v>4190885.333333333</v>
+        <v>4190885.566666667</v>
       </c>
     </row>
     <row r="15">
@@ -774,13 +774,13 @@
         <v>1974</v>
       </c>
       <c r="B15" t="n">
-        <v>932983.2222222222</v>
+        <v>932983.3333333334</v>
       </c>
       <c r="C15" t="n">
         <v>933336.6666666666</v>
       </c>
       <c r="D15" t="n">
-        <v>825165.2222222222</v>
+        <v>825165.5222222223</v>
       </c>
       <c r="E15" t="n">
         <v>582833.4444444445</v>
@@ -789,7 +789,7 @@
         <v>520214.4444444444</v>
       </c>
       <c r="G15" t="n">
-        <v>4195065.555555556</v>
+        <v>4195065.899999999</v>
       </c>
     </row>
     <row r="16">
@@ -797,13 +797,13 @@
         <v>1975</v>
       </c>
       <c r="B16" t="n">
-        <v>933487.8888888889</v>
+        <v>933488</v>
       </c>
       <c r="C16" t="n">
         <v>934691.6666666666</v>
       </c>
       <c r="D16" t="n">
-        <v>824438</v>
+        <v>824438.1888888889</v>
       </c>
       <c r="E16" t="n">
         <v>582734.1111111111</v>
@@ -812,7 +812,7 @@
         <v>521410.8888888889</v>
       </c>
       <c r="G16" t="n">
-        <v>4197372.777777778</v>
+        <v>4197373.011111111</v>
       </c>
     </row>
     <row r="17">
@@ -820,13 +820,13 @@
         <v>1976</v>
       </c>
       <c r="B17" t="n">
-        <v>934007.2222222222</v>
+        <v>934007.3333333334</v>
       </c>
       <c r="C17" t="n">
         <v>933102.7777777778</v>
       </c>
       <c r="D17" t="n">
-        <v>824854.7777777778</v>
+        <v>824854.8777777778</v>
       </c>
       <c r="E17" t="n">
         <v>582635</v>
@@ -835,7 +835,7 @@
         <v>522483.2222222222</v>
       </c>
       <c r="G17" t="n">
-        <v>4198196.444444444</v>
+        <v>4198196.588888888</v>
       </c>
     </row>
     <row r="18">
@@ -843,13 +843,13 @@
         <v>1977</v>
       </c>
       <c r="B18" t="n">
-        <v>934350.6666666666</v>
+        <v>934350.7777777778</v>
       </c>
       <c r="C18" t="n">
         <v>935077.5555555555</v>
       </c>
       <c r="D18" t="n">
-        <v>825211.6666666666</v>
+        <v>825211.8999999999</v>
       </c>
       <c r="E18" t="n">
         <v>582599</v>
@@ -858,7 +858,7 @@
         <v>523551</v>
       </c>
       <c r="G18" t="n">
-        <v>4199920.333333333</v>
+        <v>4199920.611111111</v>
       </c>
     </row>
     <row r="19">
@@ -866,13 +866,13 @@
         <v>1978</v>
       </c>
       <c r="B19" t="n">
-        <v>935061</v>
+        <v>935061.1111111111</v>
       </c>
       <c r="C19" t="n">
         <v>936715.3333333334</v>
       </c>
       <c r="D19" t="n">
-        <v>825119.4444444445</v>
+        <v>825119.6666666666</v>
       </c>
       <c r="E19" t="n">
         <v>582701.4444444445</v>
@@ -881,7 +881,7 @@
         <v>523917.6666666667</v>
       </c>
       <c r="G19" t="n">
-        <v>4202479.777777778</v>
+        <v>4202480.044444445</v>
       </c>
     </row>
     <row r="20">
@@ -889,13 +889,13 @@
         <v>1979</v>
       </c>
       <c r="B20" t="n">
-        <v>935259</v>
+        <v>935259.1111111111</v>
       </c>
       <c r="C20" t="n">
         <v>939080.3333333334</v>
       </c>
       <c r="D20" t="n">
-        <v>824836.5555555555</v>
+        <v>824836.8888888889</v>
       </c>
       <c r="E20" t="n">
         <v>582640.4444444445</v>
@@ -904,7 +904,7 @@
         <v>524857</v>
       </c>
       <c r="G20" t="n">
-        <v>4206728</v>
+        <v>4206728.377777778</v>
       </c>
     </row>
     <row r="21">
@@ -912,13 +912,13 @@
         <v>1980</v>
       </c>
       <c r="B21" t="n">
-        <v>935712.5555555555</v>
+        <v>935712.6777777778</v>
       </c>
       <c r="C21" t="n">
         <v>940272.1111111111</v>
       </c>
       <c r="D21" t="n">
-        <v>824833.2222222222</v>
+        <v>824833.3555555556</v>
       </c>
       <c r="E21" t="n">
         <v>582558.5555555555</v>
@@ -927,7 +927,7 @@
         <v>525510.3333333334</v>
       </c>
       <c r="G21" t="n">
-        <v>4209664</v>
+        <v>4209664.188888889</v>
       </c>
     </row>
     <row r="22">
@@ -935,13 +935,13 @@
         <v>1981</v>
       </c>
       <c r="B22" t="n">
-        <v>934829</v>
+        <v>934829.1222222222</v>
       </c>
       <c r="C22" t="n">
-        <v>942681.7777777778</v>
+        <v>942681.9777777778</v>
       </c>
       <c r="D22" t="n">
-        <v>824888.4444444445</v>
+        <v>824888.511111111</v>
       </c>
       <c r="E22" t="n">
         <v>582476.4444444445</v>
@@ -950,7 +950,7 @@
         <v>526139.6666666666</v>
       </c>
       <c r="G22" t="n">
-        <v>4211846.444444444</v>
+        <v>4211846.766666667</v>
       </c>
     </row>
     <row r="23">
@@ -958,13 +958,13 @@
         <v>1982</v>
       </c>
       <c r="B23" t="n">
-        <v>935227.5555555555</v>
+        <v>935227.6777777778</v>
       </c>
       <c r="C23" t="n">
-        <v>944699.5555555555</v>
+        <v>944699.5888888889</v>
       </c>
       <c r="D23" t="n">
-        <v>825483.4444444445</v>
+        <v>825483.6444444444</v>
       </c>
       <c r="E23" t="n">
         <v>583141.8888888889</v>
@@ -973,7 +973,7 @@
         <v>527235.3333333334</v>
       </c>
       <c r="G23" t="n">
-        <v>4215944.333333333</v>
+        <v>4215944.622222222</v>
       </c>
     </row>
     <row r="24">
@@ -981,13 +981,13 @@
         <v>1983</v>
       </c>
       <c r="B24" t="n">
-        <v>935764.2222222222</v>
+        <v>935764.3444444444</v>
       </c>
       <c r="C24" t="n">
         <v>951419.5555555555</v>
       </c>
       <c r="D24" t="n">
-        <v>825459.3333333334</v>
+        <v>825459.5</v>
       </c>
       <c r="E24" t="n">
         <v>583263.5555555555</v>
@@ -996,7 +996,7 @@
         <v>527507.6666666666</v>
       </c>
       <c r="G24" t="n">
-        <v>4221886.666666667</v>
+        <v>4221886.888888889</v>
       </c>
     </row>
     <row r="25">
@@ -1004,13 +1004,13 @@
         <v>1984</v>
       </c>
       <c r="B25" t="n">
-        <v>936153</v>
+        <v>936153.1222222222</v>
       </c>
       <c r="C25" t="n">
-        <v>955197.6666666666</v>
+        <v>955197.7000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>825491.2222222222</v>
+        <v>825491.5222222223</v>
       </c>
       <c r="E25" t="n">
         <v>583426</v>
@@ -1019,7 +1019,7 @@
         <v>528036.8888888889</v>
       </c>
       <c r="G25" t="n">
-        <v>4227623</v>
+        <v>4227623.388888889</v>
       </c>
     </row>
     <row r="26">
@@ -1027,13 +1027,13 @@
         <v>1985</v>
       </c>
       <c r="B26" t="n">
-        <v>937463</v>
+        <v>937463.1222222222</v>
       </c>
       <c r="C26" t="n">
-        <v>962920.8888888889</v>
+        <v>962921.1555555556</v>
       </c>
       <c r="D26" t="n">
-        <v>825670.5555555555</v>
+        <v>825670.6555555556</v>
       </c>
       <c r="E26" t="n">
         <v>583507</v>
@@ -1042,7 +1042,7 @@
         <v>528485.6666666666</v>
       </c>
       <c r="G26" t="n">
-        <v>4237632.222222222</v>
+        <v>4237632.311111111</v>
       </c>
     </row>
     <row r="27">
@@ -1050,13 +1050,13 @@
         <v>1986</v>
       </c>
       <c r="B27" t="n">
-        <v>938631.4444444445</v>
+        <v>938631.5666666667</v>
       </c>
       <c r="C27" t="n">
-        <v>967327.6666666666</v>
+        <v>967327.9333333333</v>
       </c>
       <c r="D27" t="n">
-        <v>825837</v>
+        <v>825837.2333333333</v>
       </c>
       <c r="E27" t="n">
         <v>583624.1111111111</v>
@@ -1065,7 +1065,7 @@
         <v>529800.4444444445</v>
       </c>
       <c r="G27" t="n">
-        <v>4244626.444444444</v>
+        <v>4244626.777777778</v>
       </c>
     </row>
     <row r="28">
@@ -1073,13 +1073,13 @@
         <v>1987</v>
       </c>
       <c r="B28" t="n">
-        <v>939336.4444444445</v>
+        <v>939336.5666666667</v>
       </c>
       <c r="C28" t="n">
         <v>972606.7777777778</v>
       </c>
       <c r="D28" t="n">
-        <v>825318</v>
+        <v>825318.2555555556</v>
       </c>
       <c r="E28" t="n">
         <v>582280.8888888889</v>
@@ -1088,7 +1088,7 @@
         <v>530253.8888888889</v>
       </c>
       <c r="G28" t="n">
-        <v>4249514</v>
+        <v>4249514.311111111</v>
       </c>
     </row>
     <row r="29">
@@ -1096,13 +1096,13 @@
         <v>1988</v>
       </c>
       <c r="B29" t="n">
-        <v>940667.3333333334</v>
+        <v>940667.4555555555</v>
       </c>
       <c r="C29" t="n">
         <v>976933.2222222222</v>
       </c>
       <c r="D29" t="n">
-        <v>825246.2222222222</v>
+        <v>825246.3333333334</v>
       </c>
       <c r="E29" t="n">
         <v>582372</v>
@@ -1111,7 +1111,7 @@
         <v>530608.1111111111</v>
       </c>
       <c r="G29" t="n">
-        <v>4256155.555555556</v>
+        <v>4256155.722222222</v>
       </c>
     </row>
     <row r="30">
@@ -1119,13 +1119,13 @@
         <v>1989</v>
       </c>
       <c r="B30" t="n">
-        <v>941743.2222222222</v>
+        <v>941743.5444444445</v>
       </c>
       <c r="C30" t="n">
-        <v>980790.8888888889</v>
+        <v>980791.1555555556</v>
       </c>
       <c r="D30" t="n">
-        <v>824919.5555555555</v>
+        <v>824919.8222222222</v>
       </c>
       <c r="E30" t="n">
         <v>582459.3333333334</v>
@@ -1134,7 +1134,7 @@
         <v>531052.8888888889</v>
       </c>
       <c r="G30" t="n">
-        <v>4260439.555555556</v>
+        <v>4260439.788888889</v>
       </c>
     </row>
     <row r="31">
@@ -1142,22 +1142,22 @@
         <v>1990</v>
       </c>
       <c r="B31" t="n">
-        <v>940762.5454545454</v>
+        <v>940762.7909090909</v>
       </c>
       <c r="C31" t="n">
-        <v>928900.0909090909</v>
+        <v>928900.2181818183</v>
       </c>
       <c r="D31" t="n">
-        <v>846060.3636363636</v>
+        <v>846060.609090909</v>
       </c>
       <c r="E31" t="n">
-        <v>600619.2727272727</v>
+        <v>600619.3636363636</v>
       </c>
       <c r="F31" t="n">
         <v>545265</v>
       </c>
       <c r="G31" t="n">
-        <v>4233665.909090909</v>
+        <v>4233666.263636364</v>
       </c>
     </row>
     <row r="32">
@@ -1165,22 +1165,22 @@
         <v>1991</v>
       </c>
       <c r="B32" t="n">
-        <v>941265.1818181818</v>
+        <v>941265.6</v>
       </c>
       <c r="C32" t="n">
-        <v>929068.6363636364</v>
+        <v>929068.8363636363</v>
       </c>
       <c r="D32" t="n">
-        <v>845576.7272727273</v>
+        <v>845577.0818181819</v>
       </c>
       <c r="E32" t="n">
-        <v>600611.2727272727</v>
+        <v>600611.3636363636</v>
       </c>
       <c r="F32" t="n">
-        <v>545731.9090909091</v>
+        <v>545732</v>
       </c>
       <c r="G32" t="n">
-        <v>4234022.727272728</v>
+        <v>4234023.154545454</v>
       </c>
     </row>
     <row r="33">
@@ -1188,22 +1188,22 @@
         <v>1992</v>
       </c>
       <c r="B33" t="n">
-        <v>941994</v>
+        <v>941994.3181818182</v>
       </c>
       <c r="C33" t="n">
-        <v>1075871.363636364</v>
+        <v>1075871.681818182</v>
       </c>
       <c r="D33" t="n">
-        <v>695670.2727272727</v>
+        <v>695670.5181818182</v>
       </c>
       <c r="E33" t="n">
-        <v>600391</v>
+        <v>600391.0909090909</v>
       </c>
       <c r="F33" t="n">
-        <v>546001.3636363636</v>
+        <v>546001.4545454546</v>
       </c>
       <c r="G33" t="n">
-        <v>4232240.090909091</v>
+        <v>4232240.609090908</v>
       </c>
     </row>
     <row r="34">
@@ -1211,22 +1211,22 @@
         <v>1993</v>
       </c>
       <c r="B34" t="n">
-        <v>941250.9090909091</v>
+        <v>941251.3727272727</v>
       </c>
       <c r="C34" t="n">
-        <v>1080741.818181818</v>
+        <v>1080742.272727273</v>
       </c>
       <c r="D34" t="n">
-        <v>694963.3636363636</v>
+        <v>694963.7909090909</v>
       </c>
       <c r="E34" t="n">
         <v>600079.9090909091</v>
       </c>
       <c r="F34" t="n">
-        <v>546358</v>
+        <v>546358.0909090909</v>
       </c>
       <c r="G34" t="n">
-        <v>4235222</v>
+        <v>4235222.463636364</v>
       </c>
     </row>
     <row r="35">
@@ -1234,22 +1234,22 @@
         <v>1994</v>
       </c>
       <c r="B35" t="n">
-        <v>941914.2727272727</v>
+        <v>941914.509090909</v>
       </c>
       <c r="C35" t="n">
-        <v>1080771.363636364</v>
+        <v>1080771.881818182</v>
       </c>
       <c r="D35" t="n">
-        <v>694598.9090909091</v>
+        <v>694599.1727272727</v>
       </c>
       <c r="E35" t="n">
-        <v>599877.2727272727</v>
+        <v>599877.3636363636</v>
       </c>
       <c r="F35" t="n">
         <v>546439</v>
       </c>
       <c r="G35" t="n">
-        <v>4236356.909090909</v>
+        <v>4236357.418181818</v>
       </c>
     </row>
     <row r="36">
@@ -1257,22 +1257,22 @@
         <v>1995</v>
       </c>
       <c r="B36" t="n">
-        <v>942736.0909090909</v>
+        <v>942736.2454545454</v>
       </c>
       <c r="C36" t="n">
-        <v>1080273.909090909</v>
+        <v>1080274.427272727</v>
       </c>
       <c r="D36" t="n">
-        <v>694066</v>
+        <v>694066.2909090909</v>
       </c>
       <c r="E36" t="n">
-        <v>599812.8181818182</v>
+        <v>599812.9090909091</v>
       </c>
       <c r="F36" t="n">
-        <v>547553.3636363636</v>
+        <v>547553.4636363636</v>
       </c>
       <c r="G36" t="n">
-        <v>4236182.818181818</v>
+        <v>4236183.3</v>
       </c>
     </row>
     <row r="37">
@@ -1280,22 +1280,22 @@
         <v>1996</v>
       </c>
       <c r="B37" t="n">
-        <v>943030.2727272727</v>
+        <v>943030.6272727273</v>
       </c>
       <c r="C37" t="n">
-        <v>1080309.181818182</v>
+        <v>1080309.590909091</v>
       </c>
       <c r="D37" t="n">
-        <v>693880.4545454546</v>
+        <v>693880.8454545455</v>
       </c>
       <c r="E37" t="n">
-        <v>599242.4545454546</v>
+        <v>599242.5454545454</v>
       </c>
       <c r="F37" t="n">
-        <v>547898.4545454546</v>
+        <v>547898.5454545454</v>
       </c>
       <c r="G37" t="n">
-        <v>4235885.636363637</v>
+        <v>4235886.118181818</v>
       </c>
     </row>
     <row r="38">
@@ -1303,22 +1303,22 @@
         <v>1997</v>
       </c>
       <c r="B38" t="n">
-        <v>943436.0909090909</v>
+        <v>943436.3818181817</v>
       </c>
       <c r="C38" t="n">
-        <v>1080289.454545455</v>
+        <v>1080289.9</v>
       </c>
       <c r="D38" t="n">
-        <v>694111.4545454546</v>
+        <v>694111.7363636363</v>
       </c>
       <c r="E38" t="n">
-        <v>600932.6363636364</v>
+        <v>600932.7272727273</v>
       </c>
       <c r="F38" t="n">
-        <v>548034.2727272727</v>
+        <v>548034.3636363636</v>
       </c>
       <c r="G38" t="n">
-        <v>4238431.454545454</v>
+        <v>4238431.918181818</v>
       </c>
     </row>
     <row r="39">
@@ -1326,13 +1326,13 @@
         <v>1998</v>
       </c>
       <c r="B39" t="n">
-        <v>944200.7272727273</v>
+        <v>944201.0545454546</v>
       </c>
       <c r="C39" t="n">
-        <v>1080852.090909091</v>
+        <v>1080852.586363636</v>
       </c>
       <c r="D39" t="n">
-        <v>693731.5454545454</v>
+        <v>693731.6727272727</v>
       </c>
       <c r="E39" t="n">
         <v>600808.9090909091</v>
@@ -1341,7 +1341,7 @@
         <v>548232.5454545454</v>
       </c>
       <c r="G39" t="n">
-        <v>4240003.181818182</v>
+        <v>4240003.595454546</v>
       </c>
     </row>
     <row r="40">
@@ -1349,22 +1349,22 @@
         <v>1999</v>
       </c>
       <c r="B40" t="n">
-        <v>944623.2727272727</v>
+        <v>944623.4272727272</v>
       </c>
       <c r="C40" t="n">
-        <v>1083134</v>
+        <v>1083134.536363636</v>
       </c>
       <c r="D40" t="n">
-        <v>693398.6363636364</v>
+        <v>693398.8818181818</v>
       </c>
       <c r="E40" t="n">
-        <v>600614.0909090909</v>
+        <v>600614.1818181818</v>
       </c>
       <c r="F40" t="n">
-        <v>548396.6363636364</v>
+        <v>548396.7272727273</v>
       </c>
       <c r="G40" t="n">
-        <v>4241573</v>
+        <v>4241573.372727273</v>
       </c>
     </row>
     <row r="41">
@@ -1372,22 +1372,22 @@
         <v>2000</v>
       </c>
       <c r="B41" t="n">
-        <v>944932.0909090909</v>
+        <v>944932.1909090909</v>
       </c>
       <c r="C41" t="n">
-        <v>1083369.909090909</v>
+        <v>1083370.269090909</v>
       </c>
       <c r="D41" t="n">
-        <v>693181.4545454546</v>
+        <v>693181.6272727273</v>
       </c>
       <c r="E41" t="n">
-        <v>600721</v>
+        <v>600721.0909090909</v>
       </c>
       <c r="F41" t="n">
-        <v>548442.8181818182</v>
+        <v>548442.9090909091</v>
       </c>
       <c r="G41" t="n">
-        <v>4242369.363636363</v>
+        <v>4242369.86</v>
       </c>
     </row>
     <row r="42">
@@ -1395,22 +1395,22 @@
         <v>2001</v>
       </c>
       <c r="B42" t="n">
-        <v>945555.4545454546</v>
+        <v>945555.6272727273</v>
       </c>
       <c r="C42" t="n">
-        <v>1083838.363636364</v>
+        <v>1083838.872727273</v>
       </c>
       <c r="D42" t="n">
-        <v>692607.8181818182</v>
+        <v>692608.3</v>
       </c>
       <c r="E42" t="n">
-        <v>600750.1818181818</v>
+        <v>600750.2727272727</v>
       </c>
       <c r="F42" t="n">
-        <v>548399.5454545454</v>
+        <v>548399.6363636364</v>
       </c>
       <c r="G42" t="n">
-        <v>4243214.636363637</v>
+        <v>4243215.218181818</v>
       </c>
     </row>
     <row r="43">
@@ -1418,22 +1418,22 @@
         <v>2002</v>
       </c>
       <c r="B43" t="n">
-        <v>946114.3636363636</v>
+        <v>946114.5272727273</v>
       </c>
       <c r="C43" t="n">
-        <v>1083268.454545455</v>
+        <v>1083268.772727273</v>
       </c>
       <c r="D43" t="n">
-        <v>692281.3636363636</v>
+        <v>692281.6090909091</v>
       </c>
       <c r="E43" t="n">
-        <v>600904.6363636364</v>
+        <v>600904.7272727273</v>
       </c>
       <c r="F43" t="n">
-        <v>548320.7272727273</v>
+        <v>548320.8181818182</v>
       </c>
       <c r="G43" t="n">
-        <v>4241714.909090909</v>
+        <v>4241715.190909091</v>
       </c>
     </row>
     <row r="44">
@@ -1441,22 +1441,22 @@
         <v>2003</v>
       </c>
       <c r="B44" t="n">
-        <v>947107.0909090909</v>
+        <v>947107.4727272727</v>
       </c>
       <c r="C44" t="n">
-        <v>1082638.272727273</v>
+        <v>1082638.563636363</v>
       </c>
       <c r="D44" t="n">
-        <v>691806.3636363636</v>
+        <v>691806.8636363636</v>
       </c>
       <c r="E44" t="n">
-        <v>601046.8181818182</v>
+        <v>601046.9090909091</v>
       </c>
       <c r="F44" t="n">
-        <v>548431.9090909091</v>
+        <v>548432.0454545454</v>
       </c>
       <c r="G44" t="n">
-        <v>4241198.727272728</v>
+        <v>4241199.136363637</v>
       </c>
     </row>
     <row r="45">
@@ -1464,22 +1464,22 @@
         <v>2004</v>
       </c>
       <c r="B45" t="n">
-        <v>947660.7272727273</v>
+        <v>947660.8727272727</v>
       </c>
       <c r="C45" t="n">
-        <v>1083434.636363636</v>
+        <v>1083435.190909091</v>
       </c>
       <c r="D45" t="n">
-        <v>691590.1818181818</v>
+        <v>691590.5363636364</v>
       </c>
       <c r="E45" t="n">
-        <v>600626.8181818182</v>
+        <v>600626.9090909091</v>
       </c>
       <c r="F45" t="n">
-        <v>548994.3636363636</v>
+        <v>548994.5909090909</v>
       </c>
       <c r="G45" t="n">
-        <v>4242550.636363637</v>
+        <v>4242551.009090909</v>
       </c>
     </row>
     <row r="46">
@@ -1487,22 +1487,22 @@
         <v>2005</v>
       </c>
       <c r="B46" t="n">
-        <v>949211.8181818182</v>
+        <v>949212.109090909</v>
       </c>
       <c r="C46" t="n">
-        <v>1082717.636363636</v>
+        <v>1082718.109090909</v>
       </c>
       <c r="D46" t="n">
-        <v>691409.3636363636</v>
+        <v>691409.7545454545</v>
       </c>
       <c r="E46" t="n">
-        <v>600303.6363636364</v>
+        <v>600303.7272727273</v>
       </c>
       <c r="F46" t="n">
-        <v>549090.2727272727</v>
+        <v>549090.5272727272</v>
       </c>
       <c r="G46" t="n">
-        <v>4243545.454545454</v>
+        <v>4243545.872727273</v>
       </c>
     </row>
     <row r="47">
@@ -1510,22 +1510,22 @@
         <v>2006</v>
       </c>
       <c r="B47" t="n">
-        <v>949498.5454545454</v>
+        <v>949498.8727272727</v>
       </c>
       <c r="C47" t="n">
-        <v>1083536.909090909</v>
+        <v>1083537.418181818</v>
       </c>
       <c r="D47" t="n">
-        <v>691221.4545454546</v>
+        <v>691221.9090909091</v>
       </c>
       <c r="E47" t="n">
-        <v>599995.3636363636</v>
+        <v>599995.4545454546</v>
       </c>
       <c r="F47" t="n">
-        <v>549203</v>
+        <v>549203.4545454546</v>
       </c>
       <c r="G47" t="n">
-        <v>4243023.272727272</v>
+        <v>4243023.754545454</v>
       </c>
     </row>
     <row r="48">
@@ -1533,22 +1533,22 @@
         <v>2007</v>
       </c>
       <c r="B48" t="n">
-        <v>949771.6363636364</v>
+        <v>949771.9454545453</v>
       </c>
       <c r="C48" t="n">
-        <v>1084028.090909091</v>
+        <v>1084028.5</v>
       </c>
       <c r="D48" t="n">
-        <v>690963.3636363636</v>
+        <v>690963.7272727273</v>
       </c>
       <c r="E48" t="n">
-        <v>600015.6363636364</v>
+        <v>600015.7818181817</v>
       </c>
       <c r="F48" t="n">
-        <v>549389.1818181818</v>
+        <v>549389.3636363636</v>
       </c>
       <c r="G48" t="n">
-        <v>4242575.363636363</v>
+        <v>4242575.690909091</v>
       </c>
     </row>
   </sheetData>
